--- a/data/trans_bre/P32B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,88%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,18; -0,59</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; -0,6</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 0,67</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; -0,59</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 42,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 212,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 22,67</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,76%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 2,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; -0,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 0,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 2,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,3; 519,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,49; -23,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,29; 16,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,93; 290,34</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,11%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,42; 2,88</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; -1,16</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 0,66</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 1,38</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 111,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,97; 196,13</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,11%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; -1,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; -0,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 0,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,24; 199,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,68; -45,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,7; -5,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,25; 60,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-73,88%</t>
+          <t>-74,33%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; -0,59</t>
+          <t>-7,41; -0,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 22,67</t>
+          <t>-100,0; 23,61</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,03</t>
+          <t>-1,54; 1,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,93; 290,34</t>
+          <t>-75,88; 202,71</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>-21,36%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,38</t>
+          <t>-2,35; 1,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-83,97; 196,13</t>
+          <t>-83,13; 196,78</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,11%</t>
+          <t>-32,75%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,91</t>
+          <t>-1,92; 0,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,25; 60,32</t>
+          <t>-71,43; 32,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Estudios-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,59</t>
+          <t>-2,93; -0,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; -0,6</t>
+          <t>-4,24; -0,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 0,67</t>
+          <t>-4,29; 0,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -0,82</t>
+          <t>-8,03; -0,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 42,12</t>
+          <t>-100,0; 112,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 212,44</t>
+          <t>-100,0; 164,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 23,61</t>
+          <t>-100,0; 12,67</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,1</t>
+          <t>-0,29; 2,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; -0,68</t>
+          <t>-3,21; -0,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,14</t>
+          <t>-1,9; 0,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,56</t>
+          <t>-1,39; 1,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 519,85</t>
+          <t>-44,67; 447,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,49; -23,69</t>
+          <t>-86,5; -20,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,29; 16,92</t>
+          <t>-78,61; 31,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,88; 202,71</t>
+          <t>-72,16; 254,0</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,88</t>
+          <t>-0,71; 3,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; -1,16</t>
+          <t>-5,35; -1,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,66</t>
+          <t>-3,15; 0,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,37</t>
+          <t>-2,19; 1,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 111,37</t>
+          <t>-100,0; 103,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-83,13; 196,78</t>
+          <t>-80,99; 152,32</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,15</t>
+          <t>-0,54; 1,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,17; -1,21</t>
+          <t>-3,12; -1,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; -0,17</t>
+          <t>-1,96; -0,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 0,43</t>
+          <t>-1,78; 0,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 199,37</t>
+          <t>-55,96; 229,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,68; -45,99</t>
+          <t>-90,95; -51,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-74,7; -5,74</t>
+          <t>-75,41; -11,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,43; 32,65</t>
+          <t>-73,84; 29,81</t>
         </is>
       </c>
     </row>
